--- a/2021-06 QLD-NT Outbreak Paths.xlsx
+++ b/2021-06 QLD-NT Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD6D401-684E-4221-B8F2-8B192BCBAB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC564744-B681-43AF-9202-71DD29979AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>Source</t>
   </si>
@@ -211,37 +211,67 @@
     <t>T4</t>
   </si>
   <si>
-    <t>T5 m30</t>
-  </si>
-  <si>
     <t>Granites Gold Mine</t>
   </si>
   <si>
-    <t>#f3e8f3</t>
-  </si>
-  <si>
-    <t>#e6d1e7</t>
-  </si>
-  <si>
-    <t>#d9badb</t>
-  </si>
-  <si>
-    <t>#cda4cf</t>
-  </si>
-  <si>
-    <t>#c08ec4</t>
-  </si>
-  <si>
-    <t>#b278b8</t>
-  </si>
-  <si>
-    <t>#a562ac</t>
-  </si>
-  <si>
-    <t>#974ba1</t>
-  </si>
-  <si>
     <t>#893395</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>TN1 m30</t>
+  </si>
+  <si>
+    <t>T5 m50</t>
+  </si>
+  <si>
+    <t>T7 w</t>
+  </si>
+  <si>
+    <t>TQ1</t>
+  </si>
+  <si>
+    <t>TQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? w19 </t>
+  </si>
+  <si>
+    <t>Prince Charles Hospital</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>#f4eaf4</t>
+  </si>
+  <si>
+    <t>#e9d6ea</t>
+  </si>
+  <si>
+    <t>#ddc1df</t>
+  </si>
+  <si>
+    <t>#d2add4</t>
+  </si>
+  <si>
+    <t>#c699ca</t>
+  </si>
+  <si>
+    <t>#ba85bf</t>
+  </si>
+  <si>
+    <t>#ae71b4</t>
+  </si>
+  <si>
+    <t>#a25daa</t>
+  </si>
+  <si>
+    <t>#96499f</t>
   </si>
 </sst>
 </file>
@@ -311,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0">
-  <autoFilter ref="A1:G15" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G22" totalsRowShown="0">
+  <autoFilter ref="A1:G22" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -636,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -807,7 +837,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -827,7 +857,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -876,7 +906,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -896,7 +926,7 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -916,7 +946,7 @@
         <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -924,22 +954,162 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>44375</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -983,7 +1153,7 @@
         <v>44367</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -997,7 +1167,7 @@
         <v>44368</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1011,7 +1181,7 @@
         <v>44369</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1025,7 +1195,7 @@
         <v>44370</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1039,7 +1209,7 @@
         <v>44371</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1053,7 +1223,7 @@
         <v>44372</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1067,7 +1237,7 @@
         <v>44373</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1081,7 +1251,7 @@
         <v>44374</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1095,7 +1265,7 @@
         <v>44375</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1107,6 +1277,9 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
